--- a/biology/Botanique/Fourrés_épineux_de_Madagascar/Fourrés_épineux_de_Madagascar.xlsx
+++ b/biology/Botanique/Fourrés_épineux_de_Madagascar/Fourrés_épineux_de_Madagascar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fourr%C3%A9s_%C3%A9pineux_de_Madagascar</t>
+          <t>Fourrés_épineux_de_Madagascar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fourrés épineux de Madagascar (également connus comme les forêts épineuses de Madagascar) forment une écorégion terrestre du WWF à Madagascar. La région a un sol très pauvre et des précipitations faibles et irrégulières en hiver. Cet habitat couvre 44 000 km2 au sud-ouest du pays. Cette écorégion de l'île contient une proportion exceptionnelle d'espèces végétales endémiques.
 Beaucoup de plantes qui y poussent montrent des adaptations à la sécheresse extrême. Les plantes épineuses de la famille endémique des Didiereaceae en constituent un élément remarquable, en particulier dans l'est. Ce sont des plantes ligneuses, vaguement apparentées aux cactus (Voir Caryophyllales). Les autres principales familles des taillis sont les Burseraceae, Euphorbiaceae, Fabaceae et Anacardiaceae qui ont toutes des représentants ailleurs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fourr%C3%A9s_%C3%A9pineux_de_Madagascar</t>
+          <t>Fourrés_épineux_de_Madagascar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les réserves actuelles couvrent au maximum  3 % de la végétation restante. Le parc national d'Andohahela offre une protection limitée à ce type de végétation dans sa parcelle 3. Ailleurs cet habitat de buissons épineux est sous la pression de l'exploitation humaine. Les activités ayant une incidence principales sont :
 le brûlis pour la conversion en pâturages
